--- a/medicine/Médecine vétérinaire/Cœnurose/Cœnurose.xlsx
+++ b/medicine/Médecine vétérinaire/Cœnurose/Cœnurose.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>C%C5%93nurose</t>
+          <t>Cœnurose</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La cœnurose est une maladie parasitaire qui touche les lapins, les ovins et les caprins. Elle est causée par Cœnurus cerebralis, stade larvaire de Taenia multiceps, et Coenurus serialis, larve de Taenia multiceps serialis.
  Portail de la zoologie   Portail de la parasitologie   Portail de la médecine vétérinaire                   </t>
